--- a/Notebooks/excess_returns.xlsx
+++ b/Notebooks/excess_returns.xlsx
@@ -466,10 +466,10 @@
         <v>44135</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.06008121652303479</v>
+        <v>-0.06008114879675898</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.02500277339359293</v>
+        <v>-0.02500258277087021</v>
       </c>
       <c r="D2" t="n">
         <v>-0.09556807798009438</v>
@@ -480,10 +480,10 @@
         <v>44165</v>
       </c>
       <c r="B3" t="n">
-        <v>0.09543075570689664</v>
+        <v>0.09543060472629729</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1087144228816547</v>
+        <v>0.1087141221373124</v>
       </c>
       <c r="D3" t="n">
         <v>0.4626733021450798</v>
@@ -494,10 +494,10 @@
         <v>44196</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1145196992717514</v>
+        <v>0.1145196410376248</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03699410505459209</v>
+        <v>0.03699429593008684</v>
       </c>
       <c r="D4" t="n">
         <v>0.2431981136250856</v>
@@ -508,10 +508,10 @@
         <v>44227</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.005541384876478304</v>
+        <v>-0.005541503543232838</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.01023067587368191</v>
+        <v>-0.01023050239562055</v>
       </c>
       <c r="D5" t="n">
         <v>0.1244658575740206</v>
@@ -522,10 +522,10 @@
         <v>44255</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.07974139348471951</v>
+        <v>-0.07974123439813638</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02777646178790552</v>
+        <v>0.02777637125791513</v>
       </c>
       <c r="D6" t="n">
         <v>-0.14876961716073</v>
@@ -536,10 +536,10 @@
         <v>44286</v>
       </c>
       <c r="B7" t="n">
-        <v>0.007328759234819501</v>
+        <v>0.007328824182619084</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04538835123313016</v>
+        <v>0.04538852262906783</v>
       </c>
       <c r="D7" t="n">
         <v>-0.01121740279439805</v>
@@ -550,10 +550,10 @@
         <v>44316</v>
       </c>
       <c r="B8" t="n">
-        <v>0.07621545071192297</v>
+        <v>0.07621519469268671</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05290812631047197</v>
+        <v>0.05290787170674454</v>
       </c>
       <c r="D8" t="n">
         <v>0.06214474771919559</v>
@@ -564,10 +564,10 @@
         <v>44347</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.05050384644636849</v>
+        <v>-0.05050368004306668</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006559313437164234</v>
+        <v>0.006559313948370867</v>
       </c>
       <c r="D9" t="n">
         <v>-0.1187200219081561</v>
@@ -578,10 +578,10 @@
         <v>44377</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09907581104389727</v>
+        <v>0.09907587988644982</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02239408199386537</v>
+        <v>0.02239423842658371</v>
       </c>
       <c r="D10" t="n">
         <v>0.08710401385651277</v>
@@ -592,10 +592,10 @@
         <v>44408</v>
       </c>
       <c r="B11" t="n">
-        <v>0.06494943780754135</v>
+        <v>0.06494909588593499</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02437913389389022</v>
+        <v>0.02437935900391018</v>
       </c>
       <c r="D11" t="n">
         <v>0.01100094654629068</v>
@@ -606,10 +606,10 @@
         <v>44439</v>
       </c>
       <c r="B12" t="n">
-        <v>0.04245520702487392</v>
+        <v>0.0424557557635926</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02972659243985119</v>
+        <v>0.0297261405522594</v>
       </c>
       <c r="D12" t="n">
         <v>0.07057205046648117</v>
@@ -620,10 +620,10 @@
         <v>44469</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.06805970659037451</v>
+        <v>-0.06805989793677102</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.04662882644677555</v>
+        <v>-0.04662868970097764</v>
       </c>
       <c r="D13" t="n">
         <v>0.05401899816954005</v>
@@ -634,10 +634,10 @@
         <v>44500</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05861716098781729</v>
+        <v>0.0586173812918523</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07012366718198344</v>
+        <v>0.07012359196106328</v>
       </c>
       <c r="D14" t="n">
         <v>0.4364895957287343</v>
@@ -648,10 +648,10 @@
         <v>44530</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1050422224905517</v>
+        <v>0.1050415763304676</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.008074896044768231</v>
+        <v>-0.008074966898713275</v>
       </c>
       <c r="D15" t="n">
         <v>0.02757218887343134</v>
@@ -662,10 +662,10 @@
         <v>44561</v>
       </c>
       <c r="B16" t="n">
-        <v>0.07420095309495175</v>
+        <v>0.07420135767021949</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04622036450166287</v>
+        <v>0.04622044191429851</v>
       </c>
       <c r="D16" t="n">
         <v>-0.07688201947835963</v>
@@ -679,7 +679,7 @@
         <v>-0.01585626215730609</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.05288542659651021</v>
+        <v>-0.05288549789480348</v>
       </c>
       <c r="D17" t="n">
         <v>-0.113753484839946</v>
@@ -693,7 +693,7 @@
         <v>-0.05430597202328238</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.02975703376092678</v>
+        <v>-0.02975703798169607</v>
       </c>
       <c r="D18" t="n">
         <v>-0.07100815865293134</v>
@@ -704,10 +704,10 @@
         <v>44651</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05706258645909219</v>
+        <v>0.05706268059663883</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03717958214963064</v>
+        <v>0.0371795140165841</v>
       </c>
       <c r="D19" t="n">
         <v>0.2375979759988263</v>
@@ -718,10 +718,10 @@
         <v>44681</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.09780400222642233</v>
+        <v>-0.09780417162210747</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.08844256146067581</v>
+        <v>-0.08844236714804327</v>
       </c>
       <c r="D20" t="n">
         <v>-0.192618443178425</v>
@@ -732,10 +732,10 @@
         <v>44712</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.05535458382121561</v>
+        <v>-0.05535429340013465</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001398935214241283</v>
+        <v>0.001399013048402843</v>
       </c>
       <c r="D21" t="n">
         <v>-0.1300558190473529</v>
@@ -746,10 +746,10 @@
         <v>44742</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.08276304278561766</v>
+        <v>-0.08276313008347094</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.08379369044419363</v>
+        <v>-0.08379368404041646</v>
       </c>
       <c r="D22" t="n">
         <v>-0.1132210745762382</v>
@@ -760,10 +760,10 @@
         <v>44773</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1867186144356517</v>
+        <v>0.1867185930209563</v>
       </c>
       <c r="C23" t="n">
-        <v>0.09017233092404459</v>
+        <v>0.09017232312994322</v>
       </c>
       <c r="D23" t="n">
         <v>0.3218502642597572</v>
@@ -774,10 +774,10 @@
         <v>44804</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.03359122566138092</v>
+        <v>-0.03359131818985647</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.04318511800721</v>
+        <v>-0.04318526984755241</v>
       </c>
       <c r="D24" t="n">
         <v>-0.07487200559105076</v>
@@ -791,7 +791,7 @@
         <v>-0.1236269732770721</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.09509589046061308</v>
+        <v>-0.09509565553611356</v>
       </c>
       <c r="D25" t="n">
         <v>-0.04023929617038359</v>
@@ -805,7 +805,7 @@
         <v>0.1062390003777458</v>
       </c>
       <c r="C26" t="n">
-        <v>0.07796301168711244</v>
+        <v>0.07796273013071135</v>
       </c>
       <c r="D26" t="n">
         <v>-0.1454802914902432</v>
@@ -816,10 +816,10 @@
         <v>44895</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.03657195427019658</v>
+        <v>-0.03657185318989068</v>
       </c>
       <c r="C27" t="n">
-        <v>0.05204735632931464</v>
+        <v>0.0520473609065177</v>
       </c>
       <c r="D27" t="n">
         <v>-0.1478704269534213</v>
@@ -830,10 +830,10 @@
         <v>44926</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.1258223214961069</v>
+        <v>-0.125822308714641</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.06117825922407377</v>
+        <v>-0.06117818571888983</v>
       </c>
       <c r="D28" t="n">
         <v>-0.3708843492615201</v>
@@ -844,7 +844,7 @@
         <v>44957</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1067125835582552</v>
+        <v>0.1067124513010168</v>
       </c>
       <c r="C29" t="n">
         <v>0.05907905640939199</v>
@@ -861,7 +861,7 @@
         <v>0.01925809867153388</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.02906773515898626</v>
+        <v>-0.02906765728611799</v>
       </c>
       <c r="D30" t="n">
         <v>0.1836399766695323</v>
@@ -872,10 +872,10 @@
         <v>45016</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1148277449175809</v>
+        <v>0.1148279545423777</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03325687213072707</v>
+        <v>0.03325702893150476</v>
       </c>
       <c r="D31" t="n">
         <v>0.004686288033372155</v>
@@ -886,10 +886,10 @@
         <v>45046</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02488474955814017</v>
+        <v>0.02488455673511529</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01187256361349069</v>
+        <v>0.01187240587131403</v>
       </c>
       <c r="D32" t="n">
         <v>-0.2120944393350129</v>
@@ -900,10 +900,10 @@
         <v>45077</v>
       </c>
       <c r="B33" t="n">
-        <v>0.041685021479223</v>
+        <v>0.04168511253531167</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0002429198758188899</v>
+        <v>0.0002427678973703972</v>
       </c>
       <c r="D33" t="n">
         <v>0.2367562125618296</v>
@@ -914,10 +914,10 @@
         <v>45107</v>
       </c>
       <c r="B34" t="n">
-        <v>0.09003581029974585</v>
+        <v>0.09003580208861896</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06050558512215477</v>
+        <v>0.06050566547820214</v>
       </c>
       <c r="D34" t="n">
         <v>0.2793325603277905</v>
@@ -928,7 +928,7 @@
         <v>45138</v>
       </c>
       <c r="B35" t="n">
-        <v>0.008412093537448727</v>
+        <v>0.008412092520450908</v>
       </c>
       <c r="C35" t="n">
         <v>0.02835999597644486</v>
@@ -942,10 +942,10 @@
         <v>45169</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.04679876359829707</v>
+        <v>-0.04679876026950372</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.02066701931505113</v>
+        <v>-0.02066708794196317</v>
       </c>
       <c r="D36" t="n">
         <v>-0.03937744373530697</v>
@@ -956,10 +956,10 @@
         <v>45199</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.09309483971752743</v>
+        <v>-0.09309499647549403</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.05185119748912138</v>
+        <v>-0.05185113103751739</v>
       </c>
       <c r="D37" t="n">
         <v>-0.03487228431054902</v>
@@ -970,10 +970,10 @@
         <v>45230</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.007003534319954661</v>
+        <v>-0.00700335455889096</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.02614194581793701</v>
+        <v>-0.02614209228695359</v>
       </c>
       <c r="D38" t="n">
         <v>-0.2017796872527061</v>
@@ -984,10 +984,10 @@
         <v>45260</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1094153185101019</v>
+        <v>0.1094153082439229</v>
       </c>
       <c r="C39" t="n">
-        <v>0.08697876668642947</v>
+        <v>0.08697893008158354</v>
       </c>
       <c r="D39" t="n">
         <v>0.1910144374761547</v>
@@ -998,10 +998,10 @@
         <v>45291</v>
       </c>
       <c r="B40" t="n">
-        <v>0.009265905295982802</v>
+        <v>0.009265742174336612</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0413387969178539</v>
+        <v>0.04133859113593062</v>
       </c>
       <c r="D40" t="n">
         <v>0.03067164500761931</v>
@@ -1012,10 +1012,10 @@
         <v>45322</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.04655046809676111</v>
+        <v>-0.04655047147176827</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01160305914899462</v>
+        <v>0.01160325908036364</v>
       </c>
       <c r="D41" t="n">
         <v>-0.2505805916052075</v>
@@ -1026,7 +1026,7 @@
         <v>45351</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.02289567615919038</v>
+        <v>-0.02289559425770867</v>
       </c>
       <c r="C42" t="n">
         <v>0.04783433330713841</v>
@@ -1054,7 +1054,7 @@
         <v>45412</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.01107706200597376</v>
+        <v>-0.01107697238405721</v>
       </c>
       <c r="C44" t="n">
         <v>-0.04469034104899146</v>
@@ -1068,7 +1068,7 @@
         <v>45443</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1258513588684889</v>
+        <v>0.125851256891941</v>
       </c>
       <c r="C45" t="n">
         <v>0.04620884066051927</v>
@@ -1082,7 +1082,7 @@
         <v>45473</v>
       </c>
       <c r="B46" t="n">
-        <v>0.09120859672015322</v>
+        <v>0.09120851688894824</v>
       </c>
       <c r="C46" t="n">
         <v>0.03093602459988795</v>
@@ -1096,10 +1096,10 @@
         <v>45504</v>
       </c>
       <c r="B47" t="n">
-        <v>0.05013161358893942</v>
+        <v>0.05013176329062913</v>
       </c>
       <c r="C47" t="n">
-        <v>0.007829966094155715</v>
+        <v>0.007829852230867806</v>
       </c>
       <c r="D47" t="n">
         <v>0.1685023249444309</v>
@@ -1110,10 +1110,10 @@
         <v>45535</v>
       </c>
       <c r="B48" t="n">
-        <v>0.02821348515265623</v>
+        <v>0.02821341380857537</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01922555742336321</v>
+        <v>0.01922567255302324</v>
       </c>
       <c r="D48" t="n">
         <v>-0.08153046897272828</v>
@@ -1155,7 +1155,7 @@
         <v>0.04806282880420638</v>
       </c>
       <c r="C51" t="n">
-        <v>0.05598922453078843</v>
+        <v>0.05598933317103412</v>
       </c>
       <c r="D51" t="n">
         <v>0.377824695451048</v>
@@ -1169,7 +1169,7 @@
         <v>0.05164862422563703</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.02756681118237632</v>
+        <v>-0.02756680871558</v>
       </c>
       <c r="D52" t="n">
         <v>0.1665014223370586</v>
@@ -1183,7 +1183,7 @@
         <v>-0.06107324609937716</v>
       </c>
       <c r="C53" t="n">
-        <v>0.02336639098320834</v>
+        <v>0.02336638816184098</v>
       </c>
       <c r="D53" t="n">
         <v>-0.001608042530514628</v>
@@ -1197,7 +1197,7 @@
         <v>0.02237824046756787</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.01618904722867131</v>
+        <v>-0.01618904592990533</v>
       </c>
       <c r="D54" t="n">
         <v>-0.2793715600906548</v>
@@ -1211,7 +1211,7 @@
         <v>-0.08499430131677677</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.05921324297730535</v>
+        <v>-0.05921334082534324</v>
       </c>
       <c r="D55" t="n">
         <v>-0.1189286878520724</v>
@@ -1239,7 +1239,7 @@
         <v>-0.05711073180033367</v>
       </c>
       <c r="C57" t="n">
-        <v>0.05931827570921709</v>
+        <v>0.05931816501331398</v>
       </c>
       <c r="D57" t="n">
         <v>0.2243581752245628</v>
@@ -1253,7 +1253,7 @@
         <v>0.01801687786556398</v>
       </c>
       <c r="C58" t="n">
-        <v>0.04789445234807791</v>
+        <v>0.04789456185054945</v>
       </c>
       <c r="D58" t="n">
         <v>-0.08661811277818962</v>
